--- a/Lab3/controlWord.xlsx
+++ b/Lab3/controlWord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\Mines\Advanced_Embedded\code\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0353E840-8812-4630-B8ED-7BD534DCBA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7823D98-AC36-43E9-8F82-38FE1C7A082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControWord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="83">
   <si>
     <t>Control Word</t>
   </si>
@@ -271,13 +271,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>LONG_DELAY_STATE</t>
+  </si>
+  <si>
+    <t>11 =HIGHEST_RATE</t>
+  </si>
+  <si>
+    <t>10 = HIGH_RATE</t>
+  </si>
+  <si>
+    <t>01 = LOW_RATE</t>
+  </si>
+  <si>
+    <t>00 = LOWEST_RATE</t>
   </si>
 </sst>
 </file>
@@ -806,17 +815,17 @@
   <dimension ref="A2:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.26171875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26171875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9453125" style="19" customWidth="1"/>
     <col min="4" max="5" width="11.26171875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.68359375" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.68359375" style="19" bestFit="1" customWidth="1"/>
@@ -994,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>19</v>
@@ -1040,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>20</v>
@@ -1064,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>21</v>
@@ -1088,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>22</v>
@@ -1145,7 +1154,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>75</v>
@@ -1156,7 +1165,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>24</v>
@@ -1201,7 +1210,7 @@
         <v>75</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="19">
         <v>10</v>
@@ -1257,13 +1266,13 @@
         <v>75</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1313,7 +1322,7 @@
         <v>75</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="19" t="s">
         <v>75</v>
@@ -1369,7 +1378,7 @@
         <v>75</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="19" t="s">
         <v>75</v>
@@ -1419,13 +1428,13 @@
         <v>24</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>75</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="19" t="s">
         <v>75</v>
@@ -1475,19 +1484,19 @@
         <v>24</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1531,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="19" t="s">
         <v>75</v>
@@ -1587,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="19" t="s">
         <v>75</v>
@@ -1642,20 +1651,20 @@
       <c r="M19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="19">
-        <v>11</v>
+      <c r="N19" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1699,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="19" t="s">
         <v>75</v>
@@ -1755,13 +1764,13 @@
         <v>24</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="19" t="s">
         <v>75</v>
@@ -1814,16 +1823,16 @@
         <v>23</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1870,10 +1879,10 @@
         <v>23</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="19" t="s">
         <v>75</v>
@@ -1926,16 +1935,16 @@
         <v>23</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1979,13 +1988,13 @@
         <v>24</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="19" t="s">
         <v>75</v>
@@ -2035,13 +2044,13 @@
         <v>24</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="19" t="s">
         <v>75</v>
@@ -2094,16 +2103,16 @@
         <v>23</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2147,13 +2156,13 @@
         <v>24</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="19" t="s">
         <v>75</v>
@@ -2203,13 +2212,13 @@
         <v>24</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>75</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>75</v>
@@ -2259,13 +2268,13 @@
         <v>24</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="O30" s="19" t="s">
         <v>75</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="19" t="s">
         <v>75</v>
@@ -2277,127 +2286,127 @@
     <row r="32" spans="1:18">
       <c r="A32" s="18" t="str">
         <f>"when "&amp;A10&amp;"  =&gt;  cw &lt;= '"&amp;B10&amp;"'&amp;'"&amp;C10&amp;"'&amp;'"&amp;D10&amp;"'&amp;'"&amp;E10&amp;"'&amp;'" &amp;F10&amp;"'&amp;'"&amp;G10&amp;"'&amp;'"&amp;H10&amp;"'&amp;'"&amp;I10&amp;"'&amp;'"&amp;J10&amp;"'&amp;'"&amp;K10&amp;"'&amp;'"&amp;L10&amp;"'&amp;'"&amp;M10&amp;"'&amp;"""&amp;N10&amp;""""&amp;"&amp;"&amp;""""&amp;O10&amp; """" &amp; "&amp;" &amp; """" &amp; P10 &amp; """" &amp; "&amp;" &amp; """" &amp; Q10 &amp; """" &amp; "&amp;" &amp; """" &amp; R10 &amp; """" &amp; ";"</f>
-        <v>when RESET_STATE  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"00"&amp;"11"&amp;"11";</v>
+        <v>when RESET_STATE  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="18" t="str">
         <f t="shared" ref="A33:A52" si="0">"when "&amp;A11&amp;"  =&gt;  cw &lt;= '"&amp;B11&amp;"'&amp;'"&amp;C11&amp;"'&amp;'"&amp;D11&amp;"'&amp;'"&amp;E11&amp;"'&amp;'" &amp;F11&amp;"'&amp;'"&amp;G11&amp;"'&amp;'"&amp;H11&amp;"'&amp;'"&amp;I11&amp;"'&amp;'"&amp;J11&amp;"'&amp;'"&amp;K11&amp;"'&amp;'"&amp;L11&amp;"'&amp;'"&amp;M11&amp;"'&amp;"""&amp;N11&amp;""""&amp;"&amp;"&amp;""""&amp;O11&amp; """" &amp; "&amp;" &amp; """" &amp; P11 &amp; """" &amp; "&amp;" &amp; """" &amp; Q11 &amp; """" &amp; "&amp;" &amp; """" &amp; R11 &amp; """" &amp; ";"</f>
-        <v>when LONG_DELAY_STATE  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"10"&amp;"11";</v>
+        <v>when LONG_DELAY_STATE  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"11"&amp;"10"&amp;"11";</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="18" t="str">
         <f>"when "&amp;A12&amp;"  =&gt;  cw &lt;= '"&amp;B12&amp;"'&amp;'"&amp;C12&amp;"'&amp;'"&amp;D12&amp;"'&amp;'"&amp;E12&amp;"'&amp;'" &amp;F12&amp;"'&amp;'"&amp;G12&amp;"'&amp;'"&amp;H12&amp;"'&amp;'"&amp;I12&amp;"'&amp;'"&amp;J12&amp;"'&amp;'"&amp;K12&amp;"'&amp;'"&amp;L12&amp;"'&amp;'"&amp;M12&amp;"'&amp;"""&amp;N12&amp;""""&amp;"&amp;"&amp;""""&amp;O12&amp; """" &amp; "&amp;" &amp; """" &amp; P12 &amp; """" &amp; "&amp;" &amp; """" &amp; Q12 &amp; """" &amp; "&amp;" &amp; """" &amp; R12 &amp; """" &amp; ";"</f>
-        <v>when RESET_AD7606  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'1'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when RESET_AD7606  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'1'&amp;"11"&amp;"11"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WAIT_FORCED  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WAIT_FORCED  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when SET_STORE_FLAG  =&gt;  cw &lt;= '0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when SET_STORE_FLAG  =&gt;  cw &lt;= '0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when BEGIN_CONVST  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when BEGIN_CONVST  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when ASSERT_CONVST  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"10"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when ASSERT_CONVST  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WHILE_BUSY_0  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WHILE_BUSY_0  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="18" t="str">
         <f>"when "&amp;A18&amp;"  =&gt;  cw &lt;= '"&amp;B18&amp;"'&amp;'"&amp;C18&amp;"'&amp;'"&amp;D18&amp;"'&amp;'"&amp;E18&amp;"'&amp;'" &amp;F18&amp;"'&amp;'"&amp;G18&amp;"'&amp;'"&amp;H18&amp;"'&amp;'"&amp;I18&amp;"'&amp;'"&amp;J18&amp;"'&amp;'"&amp;K18&amp;"'&amp;'"&amp;L18&amp;"'&amp;'"&amp;M18&amp;"'&amp;"""&amp;N18&amp;""""&amp;"&amp;"&amp;""""&amp;O18&amp; """" &amp; "&amp;" &amp; """" &amp; P18 &amp; """" &amp; "&amp;" &amp; """" &amp; Q18 &amp; """" &amp; "&amp;" &amp; """" &amp; R18 &amp; """" &amp; ";"</f>
-        <v>when WHILE_BUSY_1  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WHILE_BUSY_1  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when READ_CH1_LOW  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"11"&amp;"10"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when READ_CH1_LOW  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WRITE_CH1_BRAM  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"10"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WRITE_CH1_BRAM  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WRITE_CH1_TRIGGER  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"10"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WRITE_CH1_TRIGGER  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when READ_CH1_HIGH  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when READ_CH1_HIGH  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when RESET_SHORT  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when RESET_SHORT  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when READ_CH2_LOW   =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when READ_CH2_LOW   =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WRITE_CH2_BRAM  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"10"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WRITE_CH2_BRAM  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"10"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WRITE_CH2_TRIGGER  =&gt;  cw &lt;= '0'&amp;'0'&amp;'1'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"10"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WRITE_CH2_TRIGGER  =&gt;  cw &lt;= '0'&amp;'0'&amp;'1'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when READ_CH2_HIGH  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"01"&amp;"11"&amp;"10";</v>
+        <v>when READ_CH2_HIGH  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'0'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"10";</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when WAIT_FOR_END_OF_SAMPLE_INTERVAL  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"10"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when WAIT_FOR_END_OF_SAMPLE_INTERVAL  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"10"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when BRAM_FULL  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when BRAM_FULL  =&gt;  cw &lt;= '0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>when CLEAR_STORE_FLAG  =&gt;  cw &lt;= '1'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"11"&amp;"11"&amp;"01"&amp;"11"&amp;"11";</v>
+        <v>when CLEAR_STORE_FLAG  =&gt;  cw &lt;= '1'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'0'&amp;'1'&amp;'1'&amp;'1'&amp;'0'&amp;"00"&amp;"11"&amp;"11"&amp;"11"&amp;"11";</v>
       </c>
     </row>
   </sheetData>
